--- a/TestData/forgot_pass.xlsx
+++ b/TestData/forgot_pass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E16393E-8172-4B93-90CB-1A10AEE1246D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B5A8F5-8016-4D00-98BD-60B4A830AD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>mohini@mistpl.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Wemail</t>
   </si>
@@ -40,6 +37,27 @@
   </si>
   <si>
     <t>Wpin</t>
+  </si>
+  <si>
+    <t>lakheramohini98@gmail.com</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>pass2</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Lakhera@123</t>
+  </si>
+  <si>
+    <t>Lakhera@1234</t>
+  </si>
+  <si>
+    <t>Lakhera@1998</t>
   </si>
 </sst>
 </file>
@@ -377,9 +395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -388,32 +408,53 @@
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="C2">
         <v>12345</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8B631B76-DA81-4AC7-8415-DD9AAA9B067F}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{FE710CBC-5D39-403D-9B57-C8F8D8C11F15}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{D823388C-133E-4AC0-BB79-5BC601FF7382}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{038AD4F2-E769-4D2F-91A8-BE649092C1E1}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{3AC34864-AEA0-4767-910A-ACDD2F1F9F25}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{B7B9856C-3EBE-471B-9DDC-9B70B77CC59C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/forgot_pass.xlsx
+++ b/TestData/forgot_pass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B5A8F5-8016-4D00-98BD-60B4A830AD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA587E1-E86D-4D12-9643-0AFB5E2F7E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,9 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/TestData/forgot_pass.xlsx
+++ b/TestData/forgot_pass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA587E1-E86D-4D12-9643-0AFB5E2F7E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B2A29E-FA32-4ECF-B0EA-83D479AB1BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
